--- a/input_files/budget_linear.xlsx
+++ b/input_files/budget_linear.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3447ADE1-0015-49FF-BF52-9A0F84740016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB037A84-52A8-4982-869B-23B9B97C4A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="7740" windowWidth="15090" windowHeight="7845" xr2:uid="{3C140F6A-B8AB-470D-92C6-5DB3DA9D7426}"/>
+    <workbookView xWindow="13305" yWindow="0" windowWidth="15585" windowHeight="15420" xr2:uid="{3C140F6A-B8AB-470D-92C6-5DB3DA9D7426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Linear</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>4062 Covenant Fund Income</t>
-  </si>
-  <si>
-    <t>4045 UP Mission Fund Income</t>
   </si>
   <si>
     <t>4049 Tercentenary Income</t>
@@ -164,7 +161,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -543,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFF53C8-2A0E-4EE3-A5D0-B9102E0ADE48}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +584,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
-        <f>LEFT(B2,4)</f>
+        <f t="shared" ref="A2:A7" si="0">LEFT(B2,4)</f>
         <v>4027</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -602,7 +606,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
-        <f>LEFT(B3,4)</f>
+        <f t="shared" si="0"/>
         <v>4041</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -618,160 +622,107 @@
         <v>3</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F8" si="0">IF(A3=A2,F2,F2+1)</f>
+        <f t="shared" ref="F3:F7" si="1">IF(A3=A2,F2,F2+1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
-        <f>LEFT(B4,4)</f>
-        <v>4045</v>
+        <f t="shared" si="0"/>
+        <v>4049</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>23917</v>
       </c>
       <c r="D4" s="6">
-        <v>34600</v>
+        <v>22350</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
-        <f>LEFT(B5,4)</f>
-        <v>4049</v>
+        <f t="shared" si="0"/>
+        <v>4061</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
-        <v>23917</v>
+        <v>63000</v>
       </c>
       <c r="D5" s="6">
-        <v>22350</v>
+        <v>66000</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
-        <f>LEFT(B6,4)</f>
-        <v>4061</v>
+        <f t="shared" si="0"/>
+        <v>4062</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
-        <v>63000</v>
+        <v>110990</v>
       </c>
       <c r="D6" s="6">
-        <v>66000</v>
+        <v>62520</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
-        <f>LEFT(B7,4)</f>
-        <v>4062</v>
+        <f t="shared" si="0"/>
+        <v>4063</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
-        <v>110990</v>
+        <v>118900</v>
       </c>
       <c r="D7" s="6">
-        <v>62520</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
-        <f>LEFT(B8,4)</f>
-        <v>4063</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
-        <v>118900</v>
-      </c>
-      <c r="D8" s="6">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q7" xr:uid="{5AFF53C8-2A0E-4EE3-A5D0-B9102E0ADE48}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
-      <sortCondition ref="B1:B7"/>
+  <autoFilter ref="A1:Q6" xr:uid="{5AFF53C8-2A0E-4EE3-A5D0-B9102E0ADE48}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
+      <sortCondition ref="B1:B6"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C3 E2:F3 A4:F8">
-    <cfRule type="expression" dxfId="5" priority="12">
+  <conditionalFormatting sqref="A2:F7">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>MOD($F2,2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C8">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="2" priority="18">
-      <formula>MOD($F2,2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="29">
-      <formula>MOD(#REF!,2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="0" priority="31">
-      <formula>MOD($F10,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input_files/budget_linear.xlsx
+++ b/input_files/budget_linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB037A84-52A8-4982-869B-23B9B97C4A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18473F8E-2A20-4940-AD37-58F298A410BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="0" windowWidth="15585" windowHeight="15420" xr2:uid="{3C140F6A-B8AB-470D-92C6-5DB3DA9D7426}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C140F6A-B8AB-470D-92C6-5DB3DA9D7426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Linear</t>
   </si>
   <si>
-    <t>4027 Checking Account</t>
-  </si>
-  <si>
     <t>4041 Endowment Income</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>4063 Covenant Income for M&amp;B</t>
+  </si>
+  <si>
+    <t>2215 Checking Account</t>
   </si>
 </sst>
 </file>
@@ -161,79 +161,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -550,7 +482,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,16 +496,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -585,10 +517,10 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:A7" si="0">LEFT(B2,4)</f>
-        <v>4027</v>
+        <v>2215</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -597,7 +529,7 @@
         <v>175700</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5">
         <f>IF(A2=A1,F1,F1+1)</f>
@@ -610,7 +542,7 @@
         <v>4041</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6">
         <v>252948</v>
@@ -619,7 +551,7 @@
         <v>188500</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F7" si="1">IF(A3=A2,F2,F2+1)</f>
@@ -632,7 +564,7 @@
         <v>4049</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>23917</v>
@@ -641,7 +573,7 @@
         <v>22350</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
@@ -654,7 +586,7 @@
         <v>4061</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6">
         <v>63000</v>
@@ -663,7 +595,7 @@
         <v>66000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
@@ -676,7 +608,7 @@
         <v>4062</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6">
         <v>110990</v>
@@ -685,7 +617,7 @@
         <v>62520</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
@@ -698,7 +630,7 @@
         <v>4063</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6">
         <v>118900</v>
@@ -707,7 +639,7 @@
         <v>100000</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>

--- a/input_files/budget_linear.xlsx
+++ b/input_files/budget_linear.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB037A84-52A8-4982-869B-23B9B97C4A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9242D0-1159-4F4A-8BD6-B0E2B4AC7EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="0" windowWidth="15585" windowHeight="15420" xr2:uid="{3C140F6A-B8AB-470D-92C6-5DB3DA9D7426}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3C140F6A-B8AB-470D-92C6-5DB3DA9D7426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Linear</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>4063 Covenant Income for M&amp;B</t>
+  </si>
+  <si>
+    <t>budget2024</t>
   </si>
 </sst>
 </file>
@@ -161,79 +164,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -547,22 +482,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFF53C8-2A0E-4EE3-A5D0-B9102E0ADE48}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="21.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -575,14 +510,17 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:A7" si="0">LEFT(B2,4)</f>
         <v>4027</v>
@@ -596,15 +534,18 @@
       <c r="D2" s="6">
         <v>175700</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
-        <f>IF(A2=A1,F1,F1+1)</f>
+      <c r="G2" s="5">
+        <f>IF(A2=A1,G1,G1+1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>4041</v>
@@ -618,15 +559,18 @@
       <c r="D3" s="6">
         <v>188500</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6">
+        <v>234561</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F7" si="1">IF(A3=A2,F2,F2+1)</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G7" si="1">IF(A3=A2,G2,G2+1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>4049</v>
@@ -640,15 +584,18 @@
       <c r="D4" s="6">
         <v>22350</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6">
+        <v>29577</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>4061</v>
@@ -662,15 +609,18 @@
       <c r="D5" s="6">
         <v>66000</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6">
+        <v>68000</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>4062</v>
@@ -684,15 +634,18 @@
       <c r="D6" s="6">
         <v>62520</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6">
+        <v>152166</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>4063</v>
@@ -706,23 +659,26 @@
       <c r="D7" s="6">
         <v>100000</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q6" xr:uid="{5AFF53C8-2A0E-4EE3-A5D0-B9102E0ADE48}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
+  <autoFilter ref="A1:R6" xr:uid="{5AFF53C8-2A0E-4EE3-A5D0-B9102E0ADE48}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
       <sortCondition ref="B1:B6"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:F7">
+  <conditionalFormatting sqref="A2:G7">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>MOD($F2,2)=0</formula>
+      <formula>MOD($G2,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
